--- a/Compta-Gestion/Bilan_septembre.xlsx
+++ b/Compta-Gestion/Bilan_septembre.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29303"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="77" documentId="11_7D4755BF84DCCE13E97046798E31F45B5A712953" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5EEB150F-9155-4CC5-9462-0D5A9E9A146F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{51301104-134D-4558-9059-E00AA599223D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -82,22 +82,22 @@
     <t>Hauts</t>
   </si>
   <si>
+    <t>Totaux</t>
+  </si>
+  <si>
+    <t>Quantité vendue</t>
+  </si>
+  <si>
+    <t>Montants HT</t>
+  </si>
+  <si>
+    <t>Montants TTC</t>
+  </si>
+  <si>
     <t>Manteaux</t>
   </si>
   <si>
     <t>Pantalons</t>
-  </si>
-  <si>
-    <t>Totaux</t>
-  </si>
-  <si>
-    <t>Quantité vendue</t>
-  </si>
-  <si>
-    <t>Montants HT</t>
-  </si>
-  <si>
-    <t>Montants TTC</t>
   </si>
 </sst>
 </file>
@@ -136,10 +136,10 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -474,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="H3" sqref="H3:L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -487,9 +487,11 @@
     <col min="4" max="4" width="14.140625" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" customWidth="1"/>
     <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20.25" customHeight="1">
+    <row r="1" spans="1:12" ht="20.25" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -511,11 +513,11 @@
       <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3">
+      <c r="I1" s="2">
         <v>0.2</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>45901</v>
       </c>
@@ -529,7 +531,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>45903</v>
       </c>
@@ -542,8 +544,21 @@
       <c r="D3">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>45905</v>
       </c>
@@ -556,13 +571,19 @@
       <c r="D4">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="H4" t="str" cm="1">
+        <f t="array" ref="H4:H7">_xlfn.UNIQUE(B2:B11)</f>
+        <v>Chaussures</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>45908</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C5">
         <v>44</v>
@@ -570,13 +591,18 @@
       <c r="D5">
         <v>50</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="H5" t="str">
+        <v>Hauts</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>45911</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C6">
         <v>26</v>
@@ -584,13 +610,18 @@
       <c r="D6">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="H6" t="str">
+        <v>Manteaux</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>45915</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C7">
         <v>25</v>
@@ -598,8 +629,13 @@
       <c r="D7">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="H7" t="str">
+        <v>Pantalons</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>45921</v>
       </c>
@@ -613,7 +649,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:12">
       <c r="A9" s="1">
         <v>45924</v>
       </c>
@@ -627,7 +663,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>45930</v>
       </c>
@@ -641,12 +677,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:12">
       <c r="A11" s="1">
         <v>45930</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C11">
         <v>18</v>
@@ -655,57 +691,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
-      <c r="B15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="B16" t="str" cm="1">
-        <f t="array" ref="B16:B19">_xlfn.UNIQUE(B2:B11)</f>
-        <v>Chaussures</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17" t="str">
-        <v>Hauts</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="B18" t="str">
-        <v>Manteaux</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19" t="str">
-        <v>Pantalons</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-    </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
